--- a/data/dathang_test.xlsx
+++ b/data/dathang_test.xlsx
@@ -56,6 +56,9 @@
     <t>note</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>vít</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1028,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="19.4444444444444" customWidth="1"/>
@@ -1043,9 +1043,10 @@
     <col min="5" max="5" width="13.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="11.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,41 +1073,37 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6">
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s">
         <v>18</v>
       </c>
     </row>
